--- a/database/industries/folad/hormoz/product/monthly.xlsx
+++ b/database/industries/folad/hormoz/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="77">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3216,124 +3216,124 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>18184</v>
+        <v>14235</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>14235</v>
+        <v>16277</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>16277</v>
+        <v>17534</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>17534</v>
+        <v>19967</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>19967</v>
+        <v>17992</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>17992</v>
+        <v>16779</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>16779</v>
+        <v>163069</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>163069</v>
+        <v>17136</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>17136</v>
+        <v>17650</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>17650</v>
+        <v>17837</v>
       </c>
       <c r="O11" s="12" t="n">
         <v>17837</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>17837</v>
+        <v>17972</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>17972</v>
+        <v>17955</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>17955</v>
+        <v>13310</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>13310</v>
+        <v>24625</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>24625</v>
+        <v>18516</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>18516</v>
+        <v>16863</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>16863</v>
+        <v>15256</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>15256</v>
+        <v>17632</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>17632</v>
+        <v>16673</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>16673</v>
+        <v>18845</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>18845</v>
+        <v>10204</v>
       </c>
       <c r="AA11" s="12" t="n">
-        <v>10204</v>
+        <v>10965</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>10965</v>
+        <v>10999</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>10999</v>
+        <v>26929</v>
       </c>
       <c r="AD11" s="12" t="n">
-        <v>26929</v>
+        <v>2410</v>
       </c>
       <c r="AE11" s="12" t="n">
-        <v>2410</v>
+        <v>2378</v>
       </c>
       <c r="AF11" s="12" t="n">
-        <v>2378</v>
+        <v>4038</v>
       </c>
       <c r="AG11" s="12" t="n">
-        <v>4038</v>
+        <v>2594</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>2594</v>
+        <v>18894</v>
       </c>
       <c r="AI11" s="12" t="n">
-        <v>18894</v>
+        <v>15002</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>15002</v>
+        <v>5411</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>5411</v>
+        <v>11407</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>11407</v>
+        <v>16490</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>16490</v>
+        <v>15380</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>15380</v>
+        <v>19859</v>
       </c>
       <c r="AO11" s="12" t="n">
-        <v>19859</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="12" t="n">
-        <v>0</v>
+        <v>14435</v>
       </c>
       <c r="AQ11" s="12" t="n">
-        <v>14435</v>
+        <v>12166</v>
       </c>
       <c r="AR11" s="12" t="n">
-        <v>12166</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="12" t="n">
         <v>0</v>
@@ -3375,154 +3375,154 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>121084</v>
+        <v>103877</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>103877</v>
+        <v>125664</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>125664</v>
+        <v>125186</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>125186</v>
+        <v>134335</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>134335</v>
+        <v>110026</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>110026</v>
+        <v>100249</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>100249</v>
+        <v>123877</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>123877</v>
+        <v>129076</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>129076</v>
+        <v>128739</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>128739</v>
+        <v>134115</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>134115</v>
+        <v>107854</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>107854</v>
+        <v>121455</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>121455</v>
+        <v>119530</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>119530</v>
+        <v>132211</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>132211</v>
+        <v>60814</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>60814</v>
+        <v>126503</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>126503</v>
+        <v>111601</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>111601</v>
+        <v>118483</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>118483</v>
+        <v>137391</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>137391</v>
+        <v>132564</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>132564</v>
+        <v>138145</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>138145</v>
+        <v>139478</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>139478</v>
+        <v>140624</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>140624</v>
+        <v>142273</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>142273</v>
+        <v>141338</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>141338</v>
+        <v>145150</v>
       </c>
       <c r="AE12" s="14" t="n">
-        <v>145150</v>
+        <v>130434</v>
       </c>
       <c r="AF12" s="14" t="n">
-        <v>130434</v>
+        <v>113883</v>
       </c>
       <c r="AG12" s="14" t="n">
-        <v>113883</v>
+        <v>70961</v>
       </c>
       <c r="AH12" s="14" t="n">
-        <v>70961</v>
+        <v>39230</v>
       </c>
       <c r="AI12" s="14" t="n">
-        <v>39230</v>
+        <v>117862</v>
       </c>
       <c r="AJ12" s="14" t="n">
-        <v>117862</v>
+        <v>146106</v>
       </c>
       <c r="AK12" s="14" t="n">
-        <v>146106</v>
+        <v>137062</v>
       </c>
       <c r="AL12" s="14" t="n">
-        <v>137062</v>
+        <v>147591</v>
       </c>
       <c r="AM12" s="14" t="n">
-        <v>147591</v>
+        <v>144772</v>
       </c>
       <c r="AN12" s="14" t="n">
-        <v>144772</v>
+        <v>106004</v>
       </c>
       <c r="AO12" s="14" t="n">
-        <v>106004</v>
+        <v>139310</v>
       </c>
       <c r="AP12" s="14" t="n">
-        <v>139310</v>
+        <v>150494</v>
       </c>
       <c r="AQ12" s="14" t="n">
-        <v>150494</v>
+        <v>144704</v>
       </c>
       <c r="AR12" s="14" t="n">
-        <v>144704</v>
+        <v>95942</v>
       </c>
       <c r="AS12" s="14" t="n">
-        <v>95942</v>
+        <v>84124</v>
       </c>
       <c r="AT12" s="14" t="n">
-        <v>84124</v>
+        <v>36475</v>
       </c>
       <c r="AU12" s="14" t="n">
-        <v>36475</v>
+        <v>151760</v>
       </c>
       <c r="AV12" s="14" t="n">
-        <v>151760</v>
+        <v>153233</v>
       </c>
       <c r="AW12" s="14" t="n">
-        <v>153233</v>
+        <v>154567</v>
       </c>
       <c r="AX12" s="14" t="n">
         <v>154567</v>
       </c>
       <c r="AY12" s="14" t="n">
-        <v>154567</v>
+        <v>128351</v>
       </c>
       <c r="AZ12" s="14" t="n">
-        <v>128351</v>
+        <v>128996</v>
       </c>
       <c r="BA12" s="14" t="n">
-        <v>128996</v>
+        <v>153895</v>
       </c>
       <c r="BB12" s="14" t="n">
-        <v>153895</v>
+        <v>156237</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,47 +3641,47 @@
       <c r="AN13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AO13" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP13" s="15" t="n">
-        <v>0</v>
+      <c r="AO13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="AQ13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AR13" s="15" t="s">
-        <v>59</v>
+      <c r="AR13" s="15" t="n">
+        <v>1387</v>
       </c>
       <c r="AS13" s="15" t="n">
-        <v>1387</v>
+        <v>614</v>
       </c>
       <c r="AT13" s="15" t="n">
-        <v>614</v>
+        <v>42429</v>
       </c>
       <c r="AU13" s="15" t="n">
-        <v>42429</v>
+        <v>151589</v>
       </c>
       <c r="AV13" s="15" t="n">
-        <v>151589</v>
+        <v>156424</v>
       </c>
       <c r="AW13" s="15" t="n">
-        <v>156424</v>
+        <v>141112</v>
       </c>
       <c r="AX13" s="15" t="n">
-        <v>141112</v>
+        <v>147658</v>
       </c>
       <c r="AY13" s="15" t="n">
-        <v>147658</v>
+        <v>72424</v>
       </c>
       <c r="AZ13" s="15" t="n">
-        <v>72424</v>
+        <v>88008</v>
       </c>
       <c r="BA13" s="15" t="n">
-        <v>88008</v>
+        <v>143194</v>
       </c>
       <c r="BB13" s="15" t="n">
-        <v>143194</v>
+        <v>155898</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3800,47 +3800,47 @@
       <c r="AN14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AO14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP14" s="16" t="n">
-        <v>0</v>
+      <c r="AO14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="AQ14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AR14" s="16" t="s">
-        <v>59</v>
+      <c r="AR14" s="16" t="n">
+        <v>9188</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>9188</v>
+        <v>8388</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>8388</v>
+        <v>8178</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>8178</v>
+        <v>10634</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>10634</v>
+        <v>11034</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>11034</v>
+        <v>10882</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>10882</v>
+        <v>10764</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>10764</v>
+        <v>9461</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>9461</v>
+        <v>11443</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>11443</v>
+        <v>10627</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>10627</v>
+        <v>11423</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3959,47 +3959,47 @@
       <c r="AN15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AO15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP15" s="15" t="n">
-        <v>0</v>
+      <c r="AO15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="AQ15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AR15" s="15" t="s">
-        <v>59</v>
+      <c r="AR15" s="15" t="n">
+        <v>560</v>
       </c>
       <c r="AS15" s="15" t="n">
-        <v>560</v>
+        <v>1905</v>
       </c>
       <c r="AT15" s="15" t="n">
-        <v>1905</v>
+        <v>2199</v>
       </c>
       <c r="AU15" s="15" t="n">
-        <v>2199</v>
+        <v>3874</v>
       </c>
       <c r="AV15" s="15" t="n">
-        <v>3874</v>
+        <v>3679</v>
       </c>
       <c r="AW15" s="15" t="n">
-        <v>3679</v>
+        <v>6143</v>
       </c>
       <c r="AX15" s="15" t="n">
-        <v>6143</v>
+        <v>5790</v>
       </c>
       <c r="AY15" s="15" t="n">
-        <v>5790</v>
+        <v>10811</v>
       </c>
       <c r="AZ15" s="15" t="n">
-        <v>10811</v>
+        <v>6943</v>
       </c>
       <c r="BA15" s="15" t="n">
-        <v>6943</v>
+        <v>6279</v>
       </c>
       <c r="BB15" s="15" t="n">
-        <v>6279</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,8 +4113,8 @@
       <c r="T17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="20" t="s">
-        <v>59</v>
+      <c r="U17" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V17" s="20" t="n">
         <v>0</v>
@@ -4223,154 +4223,154 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="n">
-        <v>139268</v>
+        <v>118112</v>
       </c>
       <c r="F18" s="22" t="n">
-        <v>118112</v>
+        <v>141941</v>
       </c>
       <c r="G18" s="22" t="n">
-        <v>141941</v>
+        <v>142720</v>
       </c>
       <c r="H18" s="22" t="n">
-        <v>142720</v>
+        <v>154302</v>
       </c>
       <c r="I18" s="22" t="n">
-        <v>154302</v>
+        <v>128018</v>
       </c>
       <c r="J18" s="22" t="n">
-        <v>128018</v>
+        <v>117028</v>
       </c>
       <c r="K18" s="22" t="n">
-        <v>117028</v>
+        <v>286946</v>
       </c>
       <c r="L18" s="22" t="n">
-        <v>286946</v>
+        <v>146212</v>
       </c>
       <c r="M18" s="22" t="n">
-        <v>146212</v>
+        <v>146389</v>
       </c>
       <c r="N18" s="22" t="n">
-        <v>146389</v>
+        <v>151952</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>151952</v>
+        <v>125691</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>125691</v>
+        <v>139427</v>
       </c>
       <c r="Q18" s="22" t="n">
-        <v>139427</v>
+        <v>137485</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>137485</v>
+        <v>145521</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>145521</v>
+        <v>85439</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>85439</v>
+        <v>145019</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>145019</v>
+        <v>128464</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>128464</v>
+        <v>133739</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>133739</v>
+        <v>155023</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>155023</v>
+        <v>149237</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>149237</v>
+        <v>156990</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>156990</v>
+        <v>149682</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>149682</v>
+        <v>151589</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>151589</v>
+        <v>153272</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>153272</v>
+        <v>168267</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>168267</v>
+        <v>147560</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>147560</v>
+        <v>132812</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>132812</v>
+        <v>117921</v>
       </c>
       <c r="AG18" s="22" t="n">
-        <v>117921</v>
+        <v>73555</v>
       </c>
       <c r="AH18" s="22" t="n">
-        <v>73555</v>
+        <v>58124</v>
       </c>
       <c r="AI18" s="22" t="n">
-        <v>58124</v>
+        <v>132864</v>
       </c>
       <c r="AJ18" s="22" t="n">
-        <v>132864</v>
+        <v>151517</v>
       </c>
       <c r="AK18" s="22" t="n">
-        <v>151517</v>
+        <v>148469</v>
       </c>
       <c r="AL18" s="22" t="n">
-        <v>148469</v>
+        <v>164081</v>
       </c>
       <c r="AM18" s="22" t="n">
-        <v>164081</v>
+        <v>160152</v>
       </c>
       <c r="AN18" s="22" t="n">
-        <v>160152</v>
+        <v>125863</v>
       </c>
       <c r="AO18" s="22" t="n">
-        <v>125863</v>
+        <v>139310</v>
       </c>
       <c r="AP18" s="22" t="n">
-        <v>139310</v>
+        <v>164929</v>
       </c>
       <c r="AQ18" s="22" t="n">
-        <v>164929</v>
+        <v>156870</v>
       </c>
       <c r="AR18" s="22" t="n">
-        <v>156870</v>
+        <v>107077</v>
       </c>
       <c r="AS18" s="22" t="n">
-        <v>107077</v>
+        <v>95031</v>
       </c>
       <c r="AT18" s="22" t="n">
-        <v>95031</v>
+        <v>89281</v>
       </c>
       <c r="AU18" s="22" t="n">
-        <v>89281</v>
+        <v>317857</v>
       </c>
       <c r="AV18" s="22" t="n">
-        <v>317857</v>
+        <v>324370</v>
       </c>
       <c r="AW18" s="22" t="n">
-        <v>324370</v>
+        <v>312704</v>
       </c>
       <c r="AX18" s="22" t="n">
-        <v>312704</v>
+        <v>318779</v>
       </c>
       <c r="AY18" s="22" t="n">
-        <v>318779</v>
+        <v>221047</v>
       </c>
       <c r="AZ18" s="22" t="n">
-        <v>221047</v>
+        <v>235390</v>
       </c>
       <c r="BA18" s="22" t="n">
-        <v>235390</v>
+        <v>313995</v>
       </c>
       <c r="BB18" s="22" t="n">
-        <v>313995</v>
+        <v>323708</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4816,124 +4816,124 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="n">
-        <v>2934</v>
+        <v>3369</v>
       </c>
       <c r="F25" s="15" t="n">
-        <v>3369</v>
+        <v>1581</v>
       </c>
       <c r="G25" s="15" t="n">
-        <v>1581</v>
+        <v>3089</v>
       </c>
       <c r="H25" s="15" t="n">
-        <v>3089</v>
+        <v>3180</v>
       </c>
       <c r="I25" s="15" t="n">
-        <v>3180</v>
+        <v>3146</v>
       </c>
       <c r="J25" s="15" t="n">
-        <v>3146</v>
+        <v>4296</v>
       </c>
       <c r="K25" s="15" t="n">
-        <v>4296</v>
+        <v>11122</v>
       </c>
       <c r="L25" s="15" t="n">
-        <v>11122</v>
+        <v>2424</v>
       </c>
       <c r="M25" s="15" t="n">
-        <v>2424</v>
+        <v>2066</v>
       </c>
       <c r="N25" s="15" t="n">
-        <v>2066</v>
+        <v>6754</v>
       </c>
       <c r="O25" s="15" t="n">
-        <v>6754</v>
+        <v>1003</v>
       </c>
       <c r="P25" s="15" t="n">
-        <v>1003</v>
+        <v>207</v>
       </c>
       <c r="Q25" s="15" t="n">
-        <v>207</v>
+        <v>1377</v>
       </c>
       <c r="R25" s="15" t="n">
-        <v>1377</v>
+        <v>332</v>
       </c>
       <c r="S25" s="15" t="n">
-        <v>332</v>
+        <v>16954</v>
       </c>
       <c r="T25" s="15" t="n">
-        <v>16954</v>
+        <v>1078</v>
       </c>
       <c r="U25" s="15" t="n">
-        <v>1078</v>
+        <v>1747</v>
       </c>
       <c r="V25" s="15" t="n">
-        <v>1747</v>
+        <v>325</v>
       </c>
       <c r="W25" s="15" t="n">
-        <v>325</v>
+        <v>446</v>
       </c>
       <c r="X25" s="15" t="n">
-        <v>446</v>
+        <v>1196</v>
       </c>
       <c r="Y25" s="15" t="n">
-        <v>1196</v>
+        <v>1643</v>
       </c>
       <c r="Z25" s="15" t="n">
-        <v>1643</v>
+        <v>1513</v>
       </c>
       <c r="AA25" s="15" t="n">
-        <v>1513</v>
+        <v>1700</v>
       </c>
       <c r="AB25" s="15" t="n">
-        <v>1700</v>
+        <v>1217</v>
       </c>
       <c r="AC25" s="15" t="n">
-        <v>1217</v>
+        <v>2101</v>
       </c>
       <c r="AD25" s="15" t="n">
-        <v>2101</v>
+        <v>1572</v>
       </c>
       <c r="AE25" s="15" t="n">
-        <v>1572</v>
+        <v>1799</v>
       </c>
       <c r="AF25" s="15" t="n">
-        <v>1799</v>
+        <v>20601</v>
       </c>
       <c r="AG25" s="15" t="n">
-        <v>20601</v>
+        <v>2151</v>
       </c>
       <c r="AH25" s="15" t="n">
-        <v>2151</v>
+        <v>19052</v>
       </c>
       <c r="AI25" s="15" t="n">
-        <v>19052</v>
+        <v>23399</v>
       </c>
       <c r="AJ25" s="15" t="n">
-        <v>23399</v>
+        <v>1737</v>
       </c>
       <c r="AK25" s="15" t="n">
-        <v>1737</v>
+        <v>1512</v>
       </c>
       <c r="AL25" s="15" t="n">
-        <v>1512</v>
+        <v>1156</v>
       </c>
       <c r="AM25" s="15" t="n">
-        <v>1156</v>
+        <v>1389</v>
       </c>
       <c r="AN25" s="15" t="n">
-        <v>1389</v>
+        <v>9595</v>
       </c>
       <c r="AO25" s="15" t="n">
-        <v>9595</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="15" t="n">
-        <v>0</v>
+        <v>2530</v>
       </c>
       <c r="AQ25" s="15" t="n">
-        <v>2530</v>
+        <v>3075</v>
       </c>
       <c r="AR25" s="15" t="n">
-        <v>3075</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="15" t="n">
         <v>0</v>
@@ -4975,154 +4975,154 @@
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="n">
-        <v>187978</v>
+        <v>154432</v>
       </c>
       <c r="F26" s="16" t="n">
-        <v>154432</v>
+        <v>147533</v>
       </c>
       <c r="G26" s="16" t="n">
-        <v>147533</v>
+        <v>163050</v>
       </c>
       <c r="H26" s="16" t="n">
-        <v>163050</v>
+        <v>113650</v>
       </c>
       <c r="I26" s="16" t="n">
-        <v>113650</v>
+        <v>74357</v>
       </c>
       <c r="J26" s="16" t="n">
-        <v>74357</v>
+        <v>125978</v>
       </c>
       <c r="K26" s="16" t="n">
-        <v>125978</v>
+        <v>104877</v>
       </c>
       <c r="L26" s="16" t="n">
-        <v>104877</v>
+        <v>138914</v>
       </c>
       <c r="M26" s="16" t="n">
-        <v>138914</v>
+        <v>142768</v>
       </c>
       <c r="N26" s="16" t="n">
-        <v>142768</v>
+        <v>116290</v>
       </c>
       <c r="O26" s="16" t="n">
-        <v>116290</v>
+        <v>170683</v>
       </c>
       <c r="P26" s="16" t="n">
-        <v>170683</v>
+        <v>129946</v>
       </c>
       <c r="Q26" s="16" t="n">
-        <v>129946</v>
+        <v>128264</v>
       </c>
       <c r="R26" s="16" t="n">
-        <v>128264</v>
+        <v>106594</v>
       </c>
       <c r="S26" s="16" t="n">
-        <v>106594</v>
+        <v>63885</v>
       </c>
       <c r="T26" s="16" t="n">
-        <v>63885</v>
+        <v>148543</v>
       </c>
       <c r="U26" s="16" t="n">
-        <v>148543</v>
+        <v>104019</v>
       </c>
       <c r="V26" s="16" t="n">
-        <v>104019</v>
+        <v>93890</v>
       </c>
       <c r="W26" s="16" t="n">
-        <v>93890</v>
+        <v>153585</v>
       </c>
       <c r="X26" s="16" t="n">
-        <v>153585</v>
+        <v>109912</v>
       </c>
       <c r="Y26" s="16" t="n">
-        <v>109912</v>
+        <v>118143</v>
       </c>
       <c r="Z26" s="16" t="n">
-        <v>118143</v>
+        <v>94710</v>
       </c>
       <c r="AA26" s="16" t="n">
-        <v>94710</v>
+        <v>141301</v>
       </c>
       <c r="AB26" s="16" t="n">
-        <v>141301</v>
+        <v>130339</v>
       </c>
       <c r="AC26" s="16" t="n">
-        <v>130339</v>
+        <v>192726</v>
       </c>
       <c r="AD26" s="16" t="n">
-        <v>192726</v>
+        <v>70698</v>
       </c>
       <c r="AE26" s="16" t="n">
-        <v>70698</v>
+        <v>161634</v>
       </c>
       <c r="AF26" s="16" t="n">
-        <v>161634</v>
+        <v>131475</v>
       </c>
       <c r="AG26" s="16" t="n">
-        <v>131475</v>
+        <v>109408</v>
       </c>
       <c r="AH26" s="16" t="n">
-        <v>109408</v>
+        <v>81362</v>
       </c>
       <c r="AI26" s="16" t="n">
-        <v>81362</v>
+        <v>100127</v>
       </c>
       <c r="AJ26" s="16" t="n">
-        <v>100127</v>
+        <v>92852</v>
       </c>
       <c r="AK26" s="16" t="n">
-        <v>92852</v>
+        <v>152965</v>
       </c>
       <c r="AL26" s="16" t="n">
-        <v>152965</v>
+        <v>139311</v>
       </c>
       <c r="AM26" s="16" t="n">
-        <v>139311</v>
+        <v>100637</v>
       </c>
       <c r="AN26" s="16" t="n">
-        <v>100637</v>
+        <v>111113</v>
       </c>
       <c r="AO26" s="16" t="n">
-        <v>111113</v>
+        <v>181487</v>
       </c>
       <c r="AP26" s="16" t="n">
-        <v>181487</v>
+        <v>112146</v>
       </c>
       <c r="AQ26" s="16" t="n">
-        <v>112146</v>
+        <v>89097</v>
       </c>
       <c r="AR26" s="16" t="n">
-        <v>89097</v>
+        <v>106603</v>
       </c>
       <c r="AS26" s="16" t="n">
-        <v>106603</v>
+        <v>140209</v>
       </c>
       <c r="AT26" s="16" t="n">
-        <v>140209</v>
+        <v>53419</v>
       </c>
       <c r="AU26" s="16" t="n">
-        <v>53419</v>
+        <v>72433</v>
       </c>
       <c r="AV26" s="16" t="n">
-        <v>72433</v>
+        <v>145782</v>
       </c>
       <c r="AW26" s="16" t="n">
-        <v>145782</v>
+        <v>124844</v>
       </c>
       <c r="AX26" s="16" t="n">
-        <v>124844</v>
+        <v>121149</v>
       </c>
       <c r="AY26" s="16" t="n">
-        <v>121149</v>
+        <v>194631</v>
       </c>
       <c r="AZ26" s="16" t="n">
-        <v>194631</v>
+        <v>123026</v>
       </c>
       <c r="BA26" s="16" t="n">
-        <v>123026</v>
+        <v>267789</v>
       </c>
       <c r="BB26" s="16" t="n">
-        <v>267789</v>
+        <v>113377</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5241,23 +5241,23 @@
       <c r="AN27" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AO27" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP27" s="15" t="n">
-        <v>0</v>
+      <c r="AO27" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="AQ27" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AR27" s="15" t="s">
-        <v>59</v>
+      <c r="AR27" s="15" t="n">
+        <v>1387</v>
       </c>
       <c r="AS27" s="15" t="n">
-        <v>1387</v>
+        <v>614</v>
       </c>
       <c r="AT27" s="15" t="n">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="15" t="n">
         <v>0</v>
@@ -5400,47 +5400,47 @@
       <c r="AN28" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AO28" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP28" s="16" t="n">
-        <v>0</v>
+      <c r="AO28" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="AQ28" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AR28" s="16" t="s">
-        <v>59</v>
+      <c r="AR28" s="16" t="n">
+        <v>535</v>
       </c>
       <c r="AS28" s="16" t="n">
-        <v>535</v>
+        <v>706</v>
       </c>
       <c r="AT28" s="16" t="n">
-        <v>706</v>
+        <v>1146</v>
       </c>
       <c r="AU28" s="16" t="n">
-        <v>1146</v>
+        <v>1198</v>
       </c>
       <c r="AV28" s="16" t="n">
-        <v>1198</v>
+        <v>1090</v>
       </c>
       <c r="AW28" s="16" t="n">
-        <v>1090</v>
+        <v>1044</v>
       </c>
       <c r="AX28" s="16" t="n">
-        <v>1044</v>
+        <v>890</v>
       </c>
       <c r="AY28" s="16" t="n">
-        <v>890</v>
+        <v>588</v>
       </c>
       <c r="AZ28" s="16" t="n">
-        <v>588</v>
+        <v>1240</v>
       </c>
       <c r="BA28" s="16" t="n">
-        <v>1240</v>
+        <v>1360</v>
       </c>
       <c r="BB28" s="16" t="n">
-        <v>1360</v>
+        <v>836</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,47 +5559,47 @@
       <c r="AN29" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AO29" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP29" s="15" t="n">
+      <c r="AO29" s="15" t="n">
         <v>1282</v>
       </c>
+      <c r="AP29" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="AQ29" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AR29" s="15" t="s">
-        <v>59</v>
+      <c r="AR29" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AS29" s="15" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AT29" s="15" t="n">
-        <v>128</v>
+        <v>1888</v>
       </c>
       <c r="AU29" s="15" t="n">
-        <v>1888</v>
+        <v>906</v>
       </c>
       <c r="AV29" s="15" t="n">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="AW29" s="15" t="n">
-        <v>0</v>
+        <v>1653</v>
       </c>
       <c r="AX29" s="15" t="n">
-        <v>1653</v>
+        <v>207</v>
       </c>
       <c r="AY29" s="15" t="n">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="AZ29" s="15" t="n">
-        <v>106</v>
+        <v>2577</v>
       </c>
       <c r="BA29" s="15" t="n">
-        <v>2577</v>
+        <v>6959</v>
       </c>
       <c r="BB29" s="15" t="n">
-        <v>6959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,8 +5713,8 @@
       <c r="T31" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="U31" s="20" t="s">
-        <v>59</v>
+      <c r="U31" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="20" t="n">
         <v>0</v>
@@ -5927,8 +5927,8 @@
       <c r="T33" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="U33" s="20" t="s">
-        <v>59</v>
+      <c r="U33" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V33" s="20" t="n">
         <v>0</v>
@@ -6037,154 +6037,154 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="n">
-        <v>190912</v>
+        <v>157801</v>
       </c>
       <c r="F34" s="22" t="n">
-        <v>157801</v>
+        <v>149114</v>
       </c>
       <c r="G34" s="22" t="n">
-        <v>149114</v>
+        <v>166139</v>
       </c>
       <c r="H34" s="22" t="n">
-        <v>166139</v>
+        <v>116830</v>
       </c>
       <c r="I34" s="22" t="n">
-        <v>116830</v>
+        <v>77503</v>
       </c>
       <c r="J34" s="22" t="n">
-        <v>77503</v>
+        <v>130274</v>
       </c>
       <c r="K34" s="22" t="n">
-        <v>130274</v>
+        <v>115999</v>
       </c>
       <c r="L34" s="22" t="n">
-        <v>115999</v>
+        <v>141338</v>
       </c>
       <c r="M34" s="22" t="n">
-        <v>141338</v>
+        <v>144834</v>
       </c>
       <c r="N34" s="22" t="n">
-        <v>144834</v>
+        <v>123044</v>
       </c>
       <c r="O34" s="22" t="n">
-        <v>123044</v>
+        <v>171686</v>
       </c>
       <c r="P34" s="22" t="n">
-        <v>171686</v>
+        <v>130153</v>
       </c>
       <c r="Q34" s="22" t="n">
-        <v>130153</v>
+        <v>129641</v>
       </c>
       <c r="R34" s="22" t="n">
-        <v>129641</v>
+        <v>106926</v>
       </c>
       <c r="S34" s="22" t="n">
-        <v>106926</v>
+        <v>80839</v>
       </c>
       <c r="T34" s="22" t="n">
-        <v>80839</v>
+        <v>149621</v>
       </c>
       <c r="U34" s="22" t="n">
-        <v>149621</v>
+        <v>105766</v>
       </c>
       <c r="V34" s="22" t="n">
-        <v>105766</v>
+        <v>94215</v>
       </c>
       <c r="W34" s="22" t="n">
-        <v>94215</v>
+        <v>154031</v>
       </c>
       <c r="X34" s="22" t="n">
-        <v>154031</v>
+        <v>111108</v>
       </c>
       <c r="Y34" s="22" t="n">
-        <v>111108</v>
+        <v>119786</v>
       </c>
       <c r="Z34" s="22" t="n">
-        <v>119786</v>
+        <v>96223</v>
       </c>
       <c r="AA34" s="22" t="n">
-        <v>96223</v>
+        <v>143001</v>
       </c>
       <c r="AB34" s="22" t="n">
-        <v>143001</v>
+        <v>131556</v>
       </c>
       <c r="AC34" s="22" t="n">
-        <v>131556</v>
+        <v>194827</v>
       </c>
       <c r="AD34" s="22" t="n">
-        <v>194827</v>
+        <v>72270</v>
       </c>
       <c r="AE34" s="22" t="n">
-        <v>72270</v>
+        <v>163433</v>
       </c>
       <c r="AF34" s="22" t="n">
-        <v>163433</v>
+        <v>152076</v>
       </c>
       <c r="AG34" s="22" t="n">
-        <v>152076</v>
+        <v>111559</v>
       </c>
       <c r="AH34" s="22" t="n">
-        <v>111559</v>
+        <v>100414</v>
       </c>
       <c r="AI34" s="22" t="n">
-        <v>100414</v>
+        <v>123526</v>
       </c>
       <c r="AJ34" s="22" t="n">
-        <v>123526</v>
+        <v>94589</v>
       </c>
       <c r="AK34" s="22" t="n">
-        <v>94589</v>
+        <v>154477</v>
       </c>
       <c r="AL34" s="22" t="n">
-        <v>154477</v>
+        <v>140467</v>
       </c>
       <c r="AM34" s="22" t="n">
-        <v>140467</v>
+        <v>102026</v>
       </c>
       <c r="AN34" s="22" t="n">
-        <v>102026</v>
+        <v>120708</v>
       </c>
       <c r="AO34" s="22" t="n">
-        <v>120708</v>
+        <v>182769</v>
       </c>
       <c r="AP34" s="22" t="n">
-        <v>182769</v>
+        <v>114676</v>
       </c>
       <c r="AQ34" s="22" t="n">
-        <v>114676</v>
+        <v>92172</v>
       </c>
       <c r="AR34" s="22" t="n">
-        <v>92172</v>
+        <v>108525</v>
       </c>
       <c r="AS34" s="22" t="n">
-        <v>108525</v>
+        <v>141657</v>
       </c>
       <c r="AT34" s="22" t="n">
-        <v>141657</v>
+        <v>56453</v>
       </c>
       <c r="AU34" s="22" t="n">
-        <v>56453</v>
+        <v>74537</v>
       </c>
       <c r="AV34" s="22" t="n">
-        <v>74537</v>
+        <v>146872</v>
       </c>
       <c r="AW34" s="22" t="n">
-        <v>146872</v>
+        <v>127541</v>
       </c>
       <c r="AX34" s="22" t="n">
-        <v>127541</v>
+        <v>122246</v>
       </c>
       <c r="AY34" s="22" t="n">
-        <v>122246</v>
+        <v>195325</v>
       </c>
       <c r="AZ34" s="22" t="n">
-        <v>195325</v>
+        <v>126843</v>
       </c>
       <c r="BA34" s="22" t="n">
-        <v>126843</v>
+        <v>276108</v>
       </c>
       <c r="BB34" s="22" t="n">
-        <v>276108</v>
+        <v>114213</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6630,124 +6630,124 @@
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15" t="n">
-        <v>661</v>
+        <v>345</v>
       </c>
       <c r="F41" s="15" t="n">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="G41" s="15" t="n">
-        <v>162</v>
+        <v>436</v>
       </c>
       <c r="H41" s="15" t="n">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="I41" s="15" t="n">
-        <v>451</v>
+        <v>2347</v>
       </c>
       <c r="J41" s="15" t="n">
-        <v>2347</v>
+        <v>12200</v>
       </c>
       <c r="K41" s="15" t="n">
-        <v>12200</v>
+        <v>175623</v>
       </c>
       <c r="L41" s="15" t="n">
-        <v>175623</v>
+        <v>355</v>
       </c>
       <c r="M41" s="15" t="n">
-        <v>355</v>
+        <v>4558</v>
       </c>
       <c r="N41" s="15" t="n">
-        <v>4558</v>
+        <v>1503</v>
       </c>
       <c r="O41" s="15" t="n">
-        <v>1503</v>
+        <v>7302</v>
       </c>
       <c r="P41" s="15" t="n">
-        <v>7302</v>
+        <v>18</v>
       </c>
       <c r="Q41" s="15" t="n">
-        <v>18</v>
+        <v>13309</v>
       </c>
       <c r="R41" s="15" t="n">
-        <v>13309</v>
+        <v>380</v>
       </c>
       <c r="S41" s="15" t="n">
-        <v>380</v>
+        <v>433557</v>
       </c>
       <c r="T41" s="15" t="n">
-        <v>433557</v>
+        <v>1002</v>
       </c>
       <c r="U41" s="15" t="n">
-        <v>1002</v>
+        <v>8700</v>
       </c>
       <c r="V41" s="15" t="n">
-        <v>8700</v>
+        <v>282</v>
       </c>
       <c r="W41" s="15" t="n">
-        <v>282</v>
+        <v>421</v>
       </c>
       <c r="X41" s="15" t="n">
-        <v>421</v>
+        <v>1128</v>
       </c>
       <c r="Y41" s="15" t="n">
-        <v>1128</v>
+        <v>1550</v>
       </c>
       <c r="Z41" s="15" t="n">
-        <v>1550</v>
+        <v>1427</v>
       </c>
       <c r="AA41" s="15" t="n">
-        <v>1427</v>
+        <v>1603</v>
       </c>
       <c r="AB41" s="15" t="n">
-        <v>1603</v>
+        <v>1148</v>
       </c>
       <c r="AC41" s="15" t="n">
-        <v>1148</v>
+        <v>1132</v>
       </c>
       <c r="AD41" s="15" t="n">
-        <v>1132</v>
+        <v>1483</v>
       </c>
       <c r="AE41" s="15" t="n">
-        <v>1483</v>
+        <v>1696</v>
       </c>
       <c r="AF41" s="15" t="n">
-        <v>1696</v>
+        <v>589254</v>
       </c>
       <c r="AG41" s="15" t="n">
-        <v>589254</v>
+        <v>84441</v>
       </c>
       <c r="AH41" s="15" t="n">
-        <v>84441</v>
+        <v>1654875</v>
       </c>
       <c r="AI41" s="15" t="n">
-        <v>1654875</v>
+        <v>1885633</v>
       </c>
       <c r="AJ41" s="15" t="n">
-        <v>1885633</v>
+        <v>2605</v>
       </c>
       <c r="AK41" s="15" t="n">
-        <v>2605</v>
+        <v>2268</v>
       </c>
       <c r="AL41" s="15" t="n">
-        <v>2268</v>
+        <v>132792</v>
       </c>
       <c r="AM41" s="15" t="n">
-        <v>132792</v>
+        <v>32904</v>
       </c>
       <c r="AN41" s="15" t="n">
-        <v>32904</v>
+        <v>712587</v>
       </c>
       <c r="AO41" s="15" t="n">
-        <v>712587</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="15" t="n">
-        <v>0</v>
+        <v>90177</v>
       </c>
       <c r="AQ41" s="15" t="n">
-        <v>90177</v>
+        <v>128553</v>
       </c>
       <c r="AR41" s="15" t="n">
-        <v>128553</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="15" t="n">
         <v>0</v>
@@ -6789,154 +6789,154 @@
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="n">
-        <v>5428587</v>
+        <v>4671500</v>
       </c>
       <c r="F42" s="16" t="n">
-        <v>4671500</v>
+        <v>4714041</v>
       </c>
       <c r="G42" s="16" t="n">
-        <v>4714041</v>
+        <v>5586144</v>
       </c>
       <c r="H42" s="16" t="n">
-        <v>5586144</v>
+        <v>4492178</v>
       </c>
       <c r="I42" s="16" t="n">
-        <v>4492178</v>
+        <v>3047004</v>
       </c>
       <c r="J42" s="16" t="n">
-        <v>3047004</v>
+        <v>5121825</v>
       </c>
       <c r="K42" s="16" t="n">
-        <v>5121825</v>
+        <v>4044719</v>
       </c>
       <c r="L42" s="16" t="n">
-        <v>4044719</v>
+        <v>5328475</v>
       </c>
       <c r="M42" s="16" t="n">
-        <v>5328475</v>
+        <v>5419178</v>
       </c>
       <c r="N42" s="16" t="n">
-        <v>5419178</v>
+        <v>4327389</v>
       </c>
       <c r="O42" s="16" t="n">
-        <v>4327389</v>
+        <v>6634857</v>
       </c>
       <c r="P42" s="16" t="n">
-        <v>6634857</v>
+        <v>5867697</v>
       </c>
       <c r="Q42" s="16" t="n">
-        <v>5867697</v>
+        <v>6304682</v>
       </c>
       <c r="R42" s="16" t="n">
-        <v>6304682</v>
+        <v>5361470</v>
       </c>
       <c r="S42" s="16" t="n">
-        <v>5361470</v>
+        <v>3141979</v>
       </c>
       <c r="T42" s="16" t="n">
-        <v>3141979</v>
+        <v>7774071</v>
       </c>
       <c r="U42" s="16" t="n">
-        <v>7774071</v>
+        <v>6373495</v>
       </c>
       <c r="V42" s="16" t="n">
-        <v>6373495</v>
+        <v>6580851</v>
       </c>
       <c r="W42" s="16" t="n">
-        <v>6580851</v>
+        <v>13174788</v>
       </c>
       <c r="X42" s="16" t="n">
-        <v>13174788</v>
+        <v>10904665</v>
       </c>
       <c r="Y42" s="16" t="n">
-        <v>10904665</v>
+        <v>12660206</v>
       </c>
       <c r="Z42" s="16" t="n">
-        <v>12660206</v>
+        <v>10327807</v>
       </c>
       <c r="AA42" s="16" t="n">
-        <v>10327807</v>
+        <v>15995415</v>
       </c>
       <c r="AB42" s="16" t="n">
-        <v>15995415</v>
+        <v>16052321</v>
       </c>
       <c r="AC42" s="16" t="n">
-        <v>16052321</v>
+        <v>25612708</v>
       </c>
       <c r="AD42" s="16" t="n">
-        <v>25612708</v>
+        <v>9751370</v>
       </c>
       <c r="AE42" s="16" t="n">
-        <v>9751370</v>
+        <v>23328943</v>
       </c>
       <c r="AF42" s="16" t="n">
-        <v>23328943</v>
+        <v>18753234</v>
       </c>
       <c r="AG42" s="16" t="n">
-        <v>18753234</v>
+        <v>17066409</v>
       </c>
       <c r="AH42" s="16" t="n">
-        <v>17066409</v>
+        <v>13260170</v>
       </c>
       <c r="AI42" s="16" t="n">
-        <v>13260170</v>
+        <v>16440668</v>
       </c>
       <c r="AJ42" s="16" t="n">
-        <v>16440668</v>
+        <v>15126349</v>
       </c>
       <c r="AK42" s="16" t="n">
-        <v>15126349</v>
+        <v>24033635</v>
       </c>
       <c r="AL42" s="16" t="n">
-        <v>24033635</v>
+        <v>21969882</v>
       </c>
       <c r="AM42" s="16" t="n">
-        <v>21969882</v>
+        <v>15807564</v>
       </c>
       <c r="AN42" s="16" t="n">
-        <v>15807564</v>
+        <v>16558749</v>
       </c>
       <c r="AO42" s="16" t="n">
-        <v>16558749</v>
+        <v>24315310</v>
       </c>
       <c r="AP42" s="16" t="n">
-        <v>24315310</v>
+        <v>16921470</v>
       </c>
       <c r="AQ42" s="16" t="n">
-        <v>16921470</v>
+        <v>14125830</v>
       </c>
       <c r="AR42" s="16" t="n">
-        <v>14125830</v>
+        <v>17352326</v>
       </c>
       <c r="AS42" s="16" t="n">
-        <v>17352326</v>
+        <v>23966356</v>
       </c>
       <c r="AT42" s="16" t="n">
-        <v>23966356</v>
+        <v>8270741</v>
       </c>
       <c r="AU42" s="16" t="n">
-        <v>8270741</v>
+        <v>8681490</v>
       </c>
       <c r="AV42" s="16" t="n">
-        <v>8681490</v>
+        <v>19964502</v>
       </c>
       <c r="AW42" s="16" t="n">
-        <v>19964502</v>
+        <v>15730984</v>
       </c>
       <c r="AX42" s="16" t="n">
-        <v>15730984</v>
+        <v>15781442</v>
       </c>
       <c r="AY42" s="16" t="n">
-        <v>15781442</v>
+        <v>23978409</v>
       </c>
       <c r="AZ42" s="16" t="n">
-        <v>23978409</v>
+        <v>16935073</v>
       </c>
       <c r="BA42" s="16" t="n">
-        <v>16935073</v>
+        <v>44198271</v>
       </c>
       <c r="BB42" s="16" t="n">
-        <v>44198271</v>
+        <v>23167230</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,26 +7055,26 @@
       <c r="AN43" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AO43" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP43" s="15" t="n">
-        <v>0</v>
+      <c r="AO43" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="AQ43" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AR43" s="15" t="s">
-        <v>59</v>
+      <c r="AR43" s="15" t="n">
+        <v>130997</v>
       </c>
       <c r="AS43" s="15" t="n">
-        <v>130997</v>
+        <v>80560</v>
       </c>
       <c r="AT43" s="15" t="n">
-        <v>80560</v>
+        <v>-4221</v>
       </c>
       <c r="AU43" s="15" t="n">
-        <v>-4221</v>
+        <v>0</v>
       </c>
       <c r="AV43" s="15" t="n">
         <v>0</v>
@@ -7214,47 +7214,47 @@
       <c r="AN44" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AO44" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP44" s="16" t="n">
-        <v>0</v>
+      <c r="AO44" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="AQ44" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AR44" s="16" t="s">
-        <v>59</v>
+      <c r="AR44" s="16" t="n">
+        <v>1563</v>
       </c>
       <c r="AS44" s="16" t="n">
-        <v>1563</v>
+        <v>2062</v>
       </c>
       <c r="AT44" s="16" t="n">
-        <v>2062</v>
+        <v>3348</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>3348</v>
+        <v>3499</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>3499</v>
+        <v>3182</v>
       </c>
       <c r="AW44" s="16" t="n">
-        <v>3182</v>
+        <v>3049</v>
       </c>
       <c r="AX44" s="16" t="n">
-        <v>3049</v>
+        <v>2599</v>
       </c>
       <c r="AY44" s="16" t="n">
-        <v>2599</v>
+        <v>1718</v>
       </c>
       <c r="AZ44" s="16" t="n">
-        <v>1718</v>
+        <v>3620</v>
       </c>
       <c r="BA44" s="16" t="n">
-        <v>3620</v>
+        <v>3971</v>
       </c>
       <c r="BB44" s="16" t="n">
-        <v>3971</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7373,47 +7373,47 @@
       <c r="AN45" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AO45" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP45" s="15" t="n">
+      <c r="AO45" s="15" t="n">
         <v>58466</v>
       </c>
+      <c r="AP45" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="AQ45" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AR45" s="15" t="s">
-        <v>59</v>
+      <c r="AR45" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AS45" s="15" t="n">
-        <v>0</v>
+        <v>6796</v>
       </c>
       <c r="AT45" s="15" t="n">
-        <v>6796</v>
+        <v>105861</v>
       </c>
       <c r="AU45" s="15" t="n">
-        <v>105861</v>
+        <v>50606</v>
       </c>
       <c r="AV45" s="15" t="n">
-        <v>50606</v>
+        <v>-12317</v>
       </c>
       <c r="AW45" s="15" t="n">
-        <v>-12317</v>
+        <v>72523</v>
       </c>
       <c r="AX45" s="15" t="n">
-        <v>72523</v>
+        <v>9089</v>
       </c>
       <c r="AY45" s="15" t="n">
-        <v>9089</v>
+        <v>4640</v>
       </c>
       <c r="AZ45" s="15" t="n">
-        <v>4640</v>
+        <v>117657</v>
       </c>
       <c r="BA45" s="15" t="n">
-        <v>117657</v>
+        <v>332789</v>
       </c>
       <c r="BB45" s="15" t="n">
-        <v>332789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7529,8 +7529,8 @@
       <c r="T47" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="U47" s="20" t="s">
-        <v>59</v>
+      <c r="U47" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V47" s="23" t="n">
         <v>0</v>
@@ -7745,8 +7745,8 @@
       <c r="T49" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="U49" s="20" t="s">
-        <v>59</v>
+      <c r="U49" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V49" s="23" t="n">
         <v>0</v>
@@ -7961,8 +7961,8 @@
       <c r="T51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="U51" s="15" t="s">
-        <v>59</v>
+      <c r="U51" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V51" s="15" t="n">
         <v>0</v>
@@ -8071,154 +8071,154 @@
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22" t="n">
-        <v>5429248</v>
+        <v>4671845</v>
       </c>
       <c r="F52" s="22" t="n">
-        <v>4671845</v>
+        <v>4714203</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>4714203</v>
+        <v>5586580</v>
       </c>
       <c r="H52" s="22" t="n">
-        <v>5586580</v>
+        <v>4492629</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>4492629</v>
+        <v>3049351</v>
       </c>
       <c r="J52" s="22" t="n">
-        <v>3049351</v>
+        <v>5134025</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>5134025</v>
+        <v>4220342</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>4220342</v>
+        <v>5328830</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>5328830</v>
+        <v>5423736</v>
       </c>
       <c r="N52" s="22" t="n">
-        <v>5423736</v>
+        <v>4328892</v>
       </c>
       <c r="O52" s="22" t="n">
-        <v>4328892</v>
+        <v>6642159</v>
       </c>
       <c r="P52" s="22" t="n">
-        <v>6642159</v>
+        <v>5867715</v>
       </c>
       <c r="Q52" s="22" t="n">
-        <v>5867715</v>
+        <v>6317991</v>
       </c>
       <c r="R52" s="22" t="n">
-        <v>6317991</v>
+        <v>5361850</v>
       </c>
       <c r="S52" s="22" t="n">
-        <v>5361850</v>
+        <v>3575536</v>
       </c>
       <c r="T52" s="22" t="n">
-        <v>3575536</v>
+        <v>7775073</v>
       </c>
       <c r="U52" s="22" t="n">
-        <v>7775073</v>
+        <v>6382195</v>
       </c>
       <c r="V52" s="22" t="n">
-        <v>6382195</v>
+        <v>6581133</v>
       </c>
       <c r="W52" s="22" t="n">
-        <v>6581133</v>
+        <v>13175209</v>
       </c>
       <c r="X52" s="22" t="n">
-        <v>13175209</v>
+        <v>10905793</v>
       </c>
       <c r="Y52" s="22" t="n">
-        <v>10905793</v>
+        <v>12661756</v>
       </c>
       <c r="Z52" s="22" t="n">
-        <v>12661756</v>
+        <v>10329234</v>
       </c>
       <c r="AA52" s="22" t="n">
-        <v>10329234</v>
+        <v>15997018</v>
       </c>
       <c r="AB52" s="22" t="n">
-        <v>15997018</v>
+        <v>16053469</v>
       </c>
       <c r="AC52" s="22" t="n">
-        <v>16053469</v>
+        <v>25613840</v>
       </c>
       <c r="AD52" s="22" t="n">
-        <v>25613840</v>
+        <v>9752853</v>
       </c>
       <c r="AE52" s="22" t="n">
-        <v>9752853</v>
+        <v>23330639</v>
       </c>
       <c r="AF52" s="22" t="n">
-        <v>23330639</v>
+        <v>19342488</v>
       </c>
       <c r="AG52" s="22" t="n">
-        <v>19342488</v>
+        <v>17150850</v>
       </c>
       <c r="AH52" s="22" t="n">
-        <v>17150850</v>
+        <v>14915045</v>
       </c>
       <c r="AI52" s="22" t="n">
-        <v>14915045</v>
+        <v>18326301</v>
       </c>
       <c r="AJ52" s="22" t="n">
-        <v>18326301</v>
+        <v>15128954</v>
       </c>
       <c r="AK52" s="22" t="n">
-        <v>15128954</v>
+        <v>24035903</v>
       </c>
       <c r="AL52" s="22" t="n">
-        <v>24035903</v>
+        <v>22102674</v>
       </c>
       <c r="AM52" s="22" t="n">
-        <v>22102674</v>
+        <v>15840468</v>
       </c>
       <c r="AN52" s="22" t="n">
-        <v>15840468</v>
+        <v>17271336</v>
       </c>
       <c r="AO52" s="22" t="n">
-        <v>17271336</v>
+        <v>24373776</v>
       </c>
       <c r="AP52" s="22" t="n">
-        <v>24373776</v>
+        <v>17011647</v>
       </c>
       <c r="AQ52" s="22" t="n">
-        <v>17011647</v>
+        <v>14254383</v>
       </c>
       <c r="AR52" s="22" t="n">
-        <v>14254383</v>
+        <v>17484886</v>
       </c>
       <c r="AS52" s="22" t="n">
-        <v>17484886</v>
+        <v>24055774</v>
       </c>
       <c r="AT52" s="22" t="n">
-        <v>24055774</v>
+        <v>8375729</v>
       </c>
       <c r="AU52" s="22" t="n">
-        <v>8375729</v>
+        <v>8735595</v>
       </c>
       <c r="AV52" s="22" t="n">
-        <v>8735595</v>
+        <v>19955367</v>
       </c>
       <c r="AW52" s="22" t="n">
-        <v>19955367</v>
+        <v>15806556</v>
       </c>
       <c r="AX52" s="22" t="n">
-        <v>15806556</v>
+        <v>15793130</v>
       </c>
       <c r="AY52" s="22" t="n">
-        <v>15793130</v>
+        <v>23984767</v>
       </c>
       <c r="AZ52" s="22" t="n">
-        <v>23984767</v>
+        <v>17056350</v>
       </c>
       <c r="BA52" s="22" t="n">
-        <v>17056350</v>
+        <v>44535031</v>
       </c>
       <c r="BB52" s="22" t="n">
-        <v>44535031</v>
+        <v>23169672</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8664,124 +8664,124 @@
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15" t="n">
-        <v>225290</v>
+        <v>102404</v>
       </c>
       <c r="F59" s="15" t="n">
-        <v>102404</v>
+        <v>102467</v>
       </c>
       <c r="G59" s="15" t="n">
-        <v>102467</v>
+        <v>141146</v>
       </c>
       <c r="H59" s="15" t="n">
-        <v>141146</v>
+        <v>141824</v>
       </c>
       <c r="I59" s="15" t="n">
-        <v>141824</v>
+        <v>746027</v>
       </c>
       <c r="J59" s="15" t="n">
-        <v>746027</v>
+        <v>2839851</v>
       </c>
       <c r="K59" s="15" t="n">
-        <v>2839851</v>
+        <v>15790595</v>
       </c>
       <c r="L59" s="15" t="n">
-        <v>15790595</v>
+        <v>146452</v>
       </c>
       <c r="M59" s="15" t="n">
-        <v>146452</v>
+        <v>2206196</v>
       </c>
       <c r="N59" s="15" t="n">
-        <v>2206196</v>
+        <v>222535</v>
       </c>
       <c r="O59" s="15" t="n">
-        <v>222535</v>
+        <v>7280160</v>
       </c>
       <c r="P59" s="15" t="n">
-        <v>7280160</v>
+        <v>86957</v>
       </c>
       <c r="Q59" s="15" t="n">
-        <v>86957</v>
+        <v>9665214</v>
       </c>
       <c r="R59" s="15" t="n">
-        <v>9665214</v>
+        <v>1144578</v>
       </c>
       <c r="S59" s="15" t="n">
-        <v>1144578</v>
+        <v>25572549</v>
       </c>
       <c r="T59" s="15" t="n">
-        <v>25572549</v>
+        <v>929499</v>
       </c>
       <c r="U59" s="15" t="n">
-        <v>929499</v>
+        <v>4979966</v>
       </c>
       <c r="V59" s="15" t="n">
-        <v>4979966</v>
+        <v>867692</v>
       </c>
       <c r="W59" s="15" t="n">
-        <v>867692</v>
+        <v>943946</v>
       </c>
       <c r="X59" s="15" t="n">
-        <v>943946</v>
+        <v>943144</v>
       </c>
       <c r="Y59" s="15" t="n">
-        <v>943144</v>
+        <v>943396</v>
       </c>
       <c r="Z59" s="15" t="n">
-        <v>943396</v>
+        <v>943159</v>
       </c>
       <c r="AA59" s="15" t="n">
-        <v>943159</v>
+        <v>942941</v>
       </c>
       <c r="AB59" s="15" t="n">
-        <v>942941</v>
+        <v>943303</v>
       </c>
       <c r="AC59" s="15" t="n">
-        <v>943303</v>
+        <v>538791</v>
       </c>
       <c r="AD59" s="15" t="n">
-        <v>538791</v>
+        <v>943384</v>
       </c>
       <c r="AE59" s="15" t="n">
-        <v>943384</v>
+        <v>942746</v>
       </c>
       <c r="AF59" s="15" t="n">
-        <v>942746</v>
+        <v>28603175</v>
       </c>
       <c r="AG59" s="15" t="n">
-        <v>28603175</v>
+        <v>39256625</v>
       </c>
       <c r="AH59" s="15" t="n">
-        <v>39256625</v>
+        <v>86860959</v>
       </c>
       <c r="AI59" s="15" t="n">
-        <v>86860959</v>
+        <v>80586051</v>
       </c>
       <c r="AJ59" s="15" t="n">
-        <v>80586051</v>
+        <v>1499712</v>
       </c>
       <c r="AK59" s="15" t="n">
-        <v>1499712</v>
+        <v>1500000</v>
       </c>
       <c r="AL59" s="15" t="n">
-        <v>1500000</v>
+        <v>114871972</v>
       </c>
       <c r="AM59" s="15" t="n">
-        <v>114871972</v>
+        <v>23688985</v>
       </c>
       <c r="AN59" s="15" t="n">
-        <v>23688985</v>
-      </c>
-      <c r="AO59" s="15" t="n">
         <v>74266493</v>
       </c>
-      <c r="AP59" s="15" t="s">
-        <v>59</v>
+      <c r="AO59" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP59" s="15" t="n">
+        <v>35643083</v>
       </c>
       <c r="AQ59" s="15" t="n">
-        <v>35643083</v>
-      </c>
-      <c r="AR59" s="15" t="n">
         <v>41805854</v>
+      </c>
+      <c r="AR59" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="AS59" s="15" t="s">
         <v>59</v>
@@ -8823,154 +8823,154 @@
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16" t="n">
-        <v>28878842</v>
+        <v>30249560</v>
       </c>
       <c r="F60" s="16" t="n">
-        <v>30249560</v>
+        <v>31952451</v>
       </c>
       <c r="G60" s="16" t="n">
-        <v>31952451</v>
+        <v>34260313</v>
       </c>
       <c r="H60" s="16" t="n">
-        <v>34260313</v>
+        <v>39526423</v>
       </c>
       <c r="I60" s="16" t="n">
-        <v>39526423</v>
+        <v>40978038</v>
       </c>
       <c r="J60" s="16" t="n">
-        <v>40978038</v>
+        <v>40656504</v>
       </c>
       <c r="K60" s="16" t="n">
-        <v>40656504</v>
+        <v>38566311</v>
       </c>
       <c r="L60" s="16" t="n">
-        <v>38566311</v>
+        <v>38358085</v>
       </c>
       <c r="M60" s="16" t="n">
-        <v>38358085</v>
+        <v>37957932</v>
       </c>
       <c r="N60" s="16" t="n">
-        <v>37957932</v>
+        <v>37212047</v>
       </c>
       <c r="O60" s="16" t="n">
-        <v>37212047</v>
+        <v>38872395</v>
       </c>
       <c r="P60" s="16" t="n">
-        <v>38872395</v>
+        <v>45154887</v>
       </c>
       <c r="Q60" s="16" t="n">
-        <v>45154887</v>
+        <v>49153948</v>
       </c>
       <c r="R60" s="16" t="n">
-        <v>49153948</v>
+        <v>50298047</v>
       </c>
       <c r="S60" s="16" t="n">
-        <v>50298047</v>
+        <v>49181795</v>
       </c>
       <c r="T60" s="16" t="n">
-        <v>49181795</v>
+        <v>52335492</v>
       </c>
       <c r="U60" s="16" t="n">
-        <v>52335492</v>
+        <v>61272412</v>
       </c>
       <c r="V60" s="16" t="n">
-        <v>61272412</v>
+        <v>70091075</v>
       </c>
       <c r="W60" s="16" t="n">
-        <v>70091075</v>
+        <v>85781737</v>
       </c>
       <c r="X60" s="16" t="n">
-        <v>85781737</v>
+        <v>99212688</v>
       </c>
       <c r="Y60" s="16" t="n">
-        <v>99212688</v>
+        <v>107160018</v>
       </c>
       <c r="Z60" s="16" t="n">
-        <v>107160018</v>
+        <v>109046637</v>
       </c>
       <c r="AA60" s="16" t="n">
-        <v>109046637</v>
+        <v>113201004</v>
       </c>
       <c r="AB60" s="16" t="n">
-        <v>113201004</v>
+        <v>123158234</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>123158234</v>
+        <v>132897004</v>
       </c>
       <c r="AD60" s="16" t="n">
-        <v>132897004</v>
+        <v>137929927</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>137929927</v>
+        <v>144331904</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>144331904</v>
+        <v>142637262</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>142637262</v>
+        <v>155988675</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>155988675</v>
+        <v>162977434</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>162977434</v>
+        <v>164198148</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>164198148</v>
+        <v>162908166</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>162908166</v>
+        <v>157118524</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>157118524</v>
+        <v>157703857</v>
       </c>
       <c r="AM60" s="16" t="n">
-        <v>157703857</v>
+        <v>157075072</v>
       </c>
       <c r="AN60" s="16" t="n">
-        <v>157075072</v>
+        <v>149026208</v>
       </c>
       <c r="AO60" s="16" t="n">
-        <v>149026208</v>
+        <v>133978246</v>
       </c>
       <c r="AP60" s="16" t="n">
-        <v>133978246</v>
+        <v>150887860</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>150887860</v>
+        <v>158544395</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>158544395</v>
+        <v>162775213</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>162775213</v>
+        <v>170933078</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>170933078</v>
+        <v>154827702</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>154827702</v>
+        <v>119855453</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>119855453</v>
+        <v>136947648</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>136947648</v>
+        <v>126005126</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>126005126</v>
+        <v>130264732</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>130264732</v>
+        <v>123199331</v>
       </c>
       <c r="AZ60" s="16" t="n">
-        <v>123199331</v>
+        <v>137654423</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>137654423</v>
+        <v>165048867</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>165048867</v>
+        <v>204338005</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9098,14 +9098,14 @@
       <c r="AQ61" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AR61" s="15" t="s">
-        <v>59</v>
+      <c r="AR61" s="15" t="n">
+        <v>94446287</v>
       </c>
       <c r="AS61" s="15" t="n">
-        <v>94446287</v>
-      </c>
-      <c r="AT61" s="15" t="n">
         <v>131205212</v>
+      </c>
+      <c r="AT61" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="AU61" s="15" t="s">
         <v>59</v>
@@ -9257,38 +9257,38 @@
       <c r="AQ62" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AR62" s="16" t="s">
-        <v>59</v>
+      <c r="AR62" s="16" t="n">
+        <v>2921495</v>
       </c>
       <c r="AS62" s="16" t="n">
-        <v>2921495</v>
+        <v>2920680</v>
       </c>
       <c r="AT62" s="16" t="n">
-        <v>2920680</v>
+        <v>2921466</v>
       </c>
       <c r="AU62" s="16" t="n">
-        <v>2921466</v>
+        <v>2920701</v>
       </c>
       <c r="AV62" s="16" t="n">
-        <v>2920701</v>
+        <v>2919266</v>
       </c>
       <c r="AW62" s="16" t="n">
-        <v>2919266</v>
+        <v>2920498</v>
       </c>
       <c r="AX62" s="16" t="n">
-        <v>2920498</v>
+        <v>2920225</v>
       </c>
       <c r="AY62" s="16" t="n">
-        <v>2920225</v>
+        <v>2921769</v>
       </c>
       <c r="AZ62" s="16" t="n">
-        <v>2921769</v>
+        <v>2919355</v>
       </c>
       <c r="BA62" s="16" t="n">
-        <v>2919355</v>
+        <v>2919853</v>
       </c>
       <c r="BB62" s="16" t="n">
-        <v>2919853</v>
+        <v>2921053</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9407,47 +9407,47 @@
       <c r="AN63" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AO63" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP63" s="15" t="n">
+      <c r="AO63" s="15" t="n">
         <v>45605304</v>
       </c>
+      <c r="AP63" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="AQ63" s="15" t="s">
         <v>59</v>
       </c>
       <c r="AR63" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AS63" s="15" t="s">
-        <v>59</v>
+      <c r="AS63" s="15" t="n">
+        <v>53093750</v>
       </c>
       <c r="AT63" s="15" t="n">
-        <v>53093750</v>
+        <v>56070445</v>
       </c>
       <c r="AU63" s="15" t="n">
-        <v>56070445</v>
-      </c>
-      <c r="AV63" s="15" t="n">
         <v>55856512</v>
       </c>
-      <c r="AW63" s="15" t="s">
-        <v>59</v>
+      <c r="AV63" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW63" s="15" t="n">
+        <v>43873563</v>
       </c>
       <c r="AX63" s="15" t="n">
-        <v>43873563</v>
+        <v>43908213</v>
       </c>
       <c r="AY63" s="15" t="n">
-        <v>43908213</v>
+        <v>43773585</v>
       </c>
       <c r="AZ63" s="15" t="n">
-        <v>43773585</v>
+        <v>45656577</v>
       </c>
       <c r="BA63" s="15" t="n">
-        <v>45656577</v>
-      </c>
-      <c r="BB63" s="15" t="n">
         <v>47821382</v>
+      </c>
+      <c r="BB63" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
